--- a/sample-prods.xlsx
+++ b/sample-prods.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="460" windowWidth="28800" windowHeight="16620" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="460" windowWidth="28800" windowHeight="16600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Categories" sheetId="2" r:id="rId1"/>
@@ -1804,7 +1804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -3982,8 +3982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4017,7 +4017,7 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -4090,7 +4090,7 @@
       </c>
       <c r="B13">
         <f>SUM(B2:B12)</f>
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
